--- a/src/regression_results.xlsx
+++ b/src/regression_results.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,10 +481,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45744.39445344233</v>
+        <v>45744.49937586721</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1414947509765625</v>
+        <v>0.1407411098480225</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,10 +513,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45744.39445697534</v>
+        <v>45744.49937952635</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2967507839202881</v>
+        <v>0.3093318939208984</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -545,10 +545,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45744.39446051558</v>
+        <v>45744.49938323894</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2997851371765137</v>
+        <v>0.3139786720275879</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -573,6 +573,166 @@
       </c>
       <c r="H4" t="n">
         <v>17.92950008167525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45744.49938361724</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01569032669067383</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PolynomialRegression + LinearRegression</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['LFSSTAT']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>53.65028784574955</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.03302940203948612</v>
+      </c>
+      <c r="H5" t="n">
+        <v>19.00648435975831</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45744.49938442202</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.06380772590637207</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PolynomialRegression + LinearRegression</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['LFSSTAT', 'EDUC']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>49.87050114304144</v>
+      </c>
+      <c r="G6" t="n">
+        <v>13.40125329358234</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.68421903468173</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45744.50031014869</v>
+      </c>
+      <c r="B7" t="n">
+        <v>79.97497940063477</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PolynomialRegression + LinearRegression</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['LFSSTAT', 'EDUC', 'NOC_10', 'NOC_43', 'AGE_12']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>39.34707950258694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>45.49689132963229</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.0294523653138</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45744.50031355247</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2077529430389404</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>PolynomialRegression + LinearRegression</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['EDUC', 'AGE_12', 'FTPTMAIN', 'GENDER', 'IMMIG']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00430236836142691</v>
+      </c>
+      <c r="G8" t="n">
+        <v>99.99999934920251</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.001533038342107844</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45744.50094145972</v>
+      </c>
+      <c r="B9" t="n">
+        <v>54.22121977806091</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>PolynomialRegression + LinearRegression</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['SURVYEAR', 'LFSSTAT', 'CMA', 'AGE_6', 'MARSTAT', 'MJH', 'FTPTLAST', 'IMMIG', 'NOC_10', 'YABSENT', 'PAYAWAY', 'AHRSMAIN', 'UTOTHRS', 'HRSAWAY', 'PAIDOT', 'XTRAHRS', 'TENURE', 'HRLYEARN', 'PERMTEMP', 'FIRMSIZE', 'FLOWUNEM', 'WHYLEFTO', 'DURJLESS', 'LKPUBAG', 'LKRELS', 'LKANSADS', 'PRIORACT', 'TLOLOOK', 'EFAMTYPE', 'FINALWT']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HRLYEARN</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>0.01538402342406788</v>
+      </c>
+      <c r="G9" t="n">
+        <v>99.99999167917754</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.005481674070876832</v>
       </c>
     </row>
   </sheetData>
